--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/JpyLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/JpyLibor.xlsx
@@ -802,13 +802,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1105,7 +1107,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1125,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1203,7 +1205,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1306,13 +1308,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>JpyLibor.xml</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="52" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>18</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\JpyLibor.xml</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1330,7 +1332,7 @@
       </c>
       <c r="F6" s="54" t="str">
         <f>_xll.qlLibor($E6,Currency,$C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborON#0002</v>
+        <v>JpyLiborON#0001</v>
       </c>
       <c r="G6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1352,7 +1354,7 @@
       </c>
       <c r="F7" s="54" t="str">
         <f>_xll.qlLibor($E7,Currency,$C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborTN#0002</v>
+        <v>JpyLiborTN#0001</v>
       </c>
       <c r="G7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1374,7 +1376,7 @@
       </c>
       <c r="F8" s="54" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSN#0002</v>
+        <v>JpyLiborSN#0001</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1396,7 +1398,7 @@
       </c>
       <c r="F9" s="54" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSW#0002</v>
+        <v>JpyLiborSW#0001</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1418,7 +1420,7 @@
       </c>
       <c r="F10" s="54" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor2W#0002</v>
+        <v>JpyLibor2W#0001</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1440,7 +1442,7 @@
       </c>
       <c r="F11" s="54" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor3W#0002</v>
+        <v>JpyLibor3W#0001</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1462,7 +1464,7 @@
       </c>
       <c r="F12" s="54" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor1M#0002</v>
+        <v>JpyLibor1M#0001</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1484,7 +1486,7 @@
       </c>
       <c r="F13" s="54" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor2M#0002</v>
+        <v>JpyLibor2M#0001</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1506,7 +1508,7 @@
       </c>
       <c r="F14" s="54" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor3M#0002</v>
+        <v>JpyLibor3M#0001</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1528,7 +1530,7 @@
       </c>
       <c r="F15" s="54" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor4M#0002</v>
+        <v>JpyLibor4M#0001</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1550,7 +1552,7 @@
       </c>
       <c r="F16" s="54" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor5M#0002</v>
+        <v>JpyLibor5M#0001</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1572,7 +1574,7 @@
       </c>
       <c r="F17" s="54" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor6M#0002</v>
+        <v>JpyLibor6M#0001</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1594,7 +1596,7 @@
       </c>
       <c r="F18" s="54" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor7M#0002</v>
+        <v>JpyLibor7M#0001</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1616,7 +1618,7 @@
       </c>
       <c r="F19" s="54" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor8M#0002</v>
+        <v>JpyLibor8M#0001</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1638,7 +1640,7 @@
       </c>
       <c r="F20" s="54" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor9M#0002</v>
+        <v>JpyLibor9M#0001</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1660,7 +1662,7 @@
       </c>
       <c r="F21" s="54" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor10M#0002</v>
+        <v>JpyLibor10M#0001</v>
       </c>
       <c r="G21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1682,7 +1684,7 @@
       </c>
       <c r="F22" s="54" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor11M#0002</v>
+        <v>JpyLibor11M#0001</v>
       </c>
       <c r="G22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1704,7 +1706,7 @@
       </c>
       <c r="F23" s="54" t="str">
         <f>_xll.qlLibor($E23,Currency,$C23,Currency&amp;$D23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor1Y#0002</v>
+        <v>JpyLibor1Y#0001</v>
       </c>
       <c r="G23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -1804,13 +1806,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>JpyLiborSwapIsdaFixAm.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\JpyLiborSwapIsdaFixAm.xml</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -1828,7 +1830,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm1Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm1Y#0001</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1850,7 +1852,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm2Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm2Y#0001</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1872,7 +1874,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm3Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm3Y#0001</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1894,7 +1896,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm4Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm4Y#0001</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1916,7 +1918,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm5Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm5Y#0001</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1938,7 +1940,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm6Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm6Y#0001</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1960,7 +1962,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm7Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm7Y#0001</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1982,7 +1984,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm8Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm8Y#0001</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2004,7 +2006,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm9Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm9Y#0001</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2026,7 +2028,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm10Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm10Y#0001</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2048,7 +2050,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm11Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm11Y#0001</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2070,7 +2072,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm12Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm12Y#0001</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2092,7 +2094,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm13Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm13Y#0001</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2114,7 +2116,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm14Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm14Y#0001</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2136,7 +2138,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm15Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm15Y#0001</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2158,7 +2160,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm16Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm16Y#0001</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2180,7 +2182,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm17Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm17Y#0001</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2202,7 +2204,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm18Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm18Y#0001</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2224,7 +2226,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm19Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm19Y#0001</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2246,7 +2248,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm20Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm20Y#0001</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2268,7 +2270,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm21Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm21Y#0001</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2290,7 +2292,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm22Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm22Y#0001</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2312,7 +2314,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm23Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm23Y#0001</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2334,7 +2336,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm24Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm24Y#0001</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2356,7 +2358,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm25Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm25Y#0001</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2378,7 +2380,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm26Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm26Y#0001</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2400,7 +2402,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm27Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm27Y#0001</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2422,7 +2424,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm28Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm28Y#0001</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2444,7 +2446,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm29Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm29Y#0001</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2466,7 +2468,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm30Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm30Y#0001</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2488,7 +2490,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm31Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm31Y#0001</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2510,7 +2512,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm32Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm32Y#0001</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2532,7 +2534,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm33Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm33Y#0001</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2554,7 +2556,7 @@
       </c>
       <c r="F40" s="41" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm34Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm34Y#0001</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2576,7 +2578,7 @@
       </c>
       <c r="F41" s="41" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm35Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm35Y#0001</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2598,7 +2600,7 @@
       </c>
       <c r="F42" s="41" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm36Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm36Y#0001</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2620,7 +2622,7 @@
       </c>
       <c r="F43" s="41" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm37Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm37Y#0001</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -2642,7 +2644,7 @@
       </c>
       <c r="F44" s="41" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm38Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm38Y#0001</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -2664,7 +2666,7 @@
       </c>
       <c r="F45" s="41" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm39Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm39Y#0001</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -2686,7 +2688,7 @@
       </c>
       <c r="F46" s="41" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm40Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm40Y#0001</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2708,7 +2710,7 @@
       </c>
       <c r="F47" s="41" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm41Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm41Y#0001</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -2730,7 +2732,7 @@
       </c>
       <c r="F48" s="41" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm42Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm42Y#0001</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -2752,7 +2754,7 @@
       </c>
       <c r="F49" s="41" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm43Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm43Y#0001</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -2774,7 +2776,7 @@
       </c>
       <c r="F50" s="41" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm44Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm44Y#0001</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -2796,7 +2798,7 @@
       </c>
       <c r="F51" s="41" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm45Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm45Y#0001</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -2818,7 +2820,7 @@
       </c>
       <c r="F52" s="41" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm46Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm46Y#0001</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -2840,7 +2842,7 @@
       </c>
       <c r="F53" s="41" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm47Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm47Y#0001</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -2862,7 +2864,7 @@
       </c>
       <c r="F54" s="41" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm48Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm48Y#0001</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -2884,7 +2886,7 @@
       </c>
       <c r="F55" s="41" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm49Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm49Y#0001</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -2906,7 +2908,7 @@
       </c>
       <c r="F56" s="41" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm50Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm50Y#0001</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -2928,7 +2930,7 @@
       </c>
       <c r="F57" s="41" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm51Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm51Y#0001</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -2950,7 +2952,7 @@
       </c>
       <c r="F58" s="41" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm52Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm52Y#0001</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -2972,7 +2974,7 @@
       </c>
       <c r="F59" s="41" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm53Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm53Y#0001</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -2994,7 +2996,7 @@
       </c>
       <c r="F60" s="41" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm54Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm54Y#0001</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -3016,7 +3018,7 @@
       </c>
       <c r="F61" s="41" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm55Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm55Y#0001</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -3038,7 +3040,7 @@
       </c>
       <c r="F62" s="41" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm56Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm56Y#0001</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -3060,7 +3062,7 @@
       </c>
       <c r="F63" s="41" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm57Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm57Y#0001</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3082,7 +3084,7 @@
       </c>
       <c r="F64" s="41" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm58Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm58Y#0001</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="F65" s="41" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm59Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm59Y#0001</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3126,7 +3128,7 @@
       </c>
       <c r="F66" s="41" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm60Y#0003</v>
+        <v>JpyLiborSwapIsdaFixAm60Y#0001</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -3227,13 +3229,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>JpyLiborSwapIsdaFixPm.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\JpyLiborSwapIsdaFixPm.xml</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -3251,7 +3253,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm1Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm1Y#0001</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3273,7 +3275,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm2Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm2Y#0001</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3295,7 +3297,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm3Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm3Y#0001</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3317,7 +3319,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm4Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm4Y#0001</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3339,7 +3341,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm5Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm5Y#0001</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3361,7 +3363,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm6Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm6Y#0001</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3383,7 +3385,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm7Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm7Y#0001</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3405,7 +3407,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm8Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm8Y#0001</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3427,7 +3429,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm9Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm9Y#0001</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3449,7 +3451,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm10Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm10Y#0001</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3471,7 +3473,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm11Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm11Y#0001</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3493,7 +3495,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm12Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm12Y#0001</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3515,7 +3517,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm13Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm13Y#0001</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3537,7 +3539,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm14Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm14Y#0001</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3559,7 +3561,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm15Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm15Y#0001</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3581,7 +3583,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm16Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm16Y#0001</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3603,7 +3605,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm17Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm17Y#0001</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3625,7 +3627,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm18Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm18Y#0001</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3647,7 +3649,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm19Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm19Y#0001</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3669,7 +3671,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm20Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm20Y#0001</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3691,7 +3693,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm21Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm21Y#0001</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3713,7 +3715,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm22Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm22Y#0001</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3735,7 +3737,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm23Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm23Y#0001</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3757,7 +3759,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm24Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm24Y#0001</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3779,7 +3781,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm25Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm25Y#0001</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3801,7 +3803,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm26Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm26Y#0001</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -3823,7 +3825,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm27Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm27Y#0001</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -3845,7 +3847,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm28Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm28Y#0001</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -3867,7 +3869,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm29Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm29Y#0001</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -3889,7 +3891,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm30Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm30Y#0001</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -3911,7 +3913,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm31Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm31Y#0001</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -3933,7 +3935,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm32Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm32Y#0001</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -3955,7 +3957,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm33Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm33Y#0001</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -3977,7 +3979,7 @@
       </c>
       <c r="F40" s="41" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm34Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm34Y#0001</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -3999,7 +4001,7 @@
       </c>
       <c r="F41" s="41" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm35Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm35Y#0001</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -4021,7 +4023,7 @@
       </c>
       <c r="F42" s="41" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm36Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm36Y#0001</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -4043,7 +4045,7 @@
       </c>
       <c r="F43" s="41" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm37Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm37Y#0001</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -4065,7 +4067,7 @@
       </c>
       <c r="F44" s="41" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm38Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm38Y#0001</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -4087,7 +4089,7 @@
       </c>
       <c r="F45" s="41" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm39Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm39Y#0001</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -4109,7 +4111,7 @@
       </c>
       <c r="F46" s="41" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm40Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm40Y#0001</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -4131,7 +4133,7 @@
       </c>
       <c r="F47" s="41" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm41Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm41Y#0001</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -4153,7 +4155,7 @@
       </c>
       <c r="F48" s="41" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm42Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm42Y#0001</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -4175,7 +4177,7 @@
       </c>
       <c r="F49" s="41" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm43Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm43Y#0001</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -4197,7 +4199,7 @@
       </c>
       <c r="F50" s="41" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm44Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm44Y#0001</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -4219,7 +4221,7 @@
       </c>
       <c r="F51" s="41" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm45Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm45Y#0001</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -4241,7 +4243,7 @@
       </c>
       <c r="F52" s="41" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm46Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm46Y#0001</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -4263,7 +4265,7 @@
       </c>
       <c r="F53" s="41" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm47Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm47Y#0001</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -4285,7 +4287,7 @@
       </c>
       <c r="F54" s="41" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm48Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm48Y#0001</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -4307,7 +4309,7 @@
       </c>
       <c r="F55" s="41" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm49Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm49Y#0001</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -4329,7 +4331,7 @@
       </c>
       <c r="F56" s="41" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm50Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm50Y#0001</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -4351,7 +4353,7 @@
       </c>
       <c r="F57" s="41" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm51Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm51Y#0001</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -4373,7 +4375,7 @@
       </c>
       <c r="F58" s="41" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm52Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm52Y#0001</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -4395,7 +4397,7 @@
       </c>
       <c r="F59" s="41" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm53Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm53Y#0001</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -4417,7 +4419,7 @@
       </c>
       <c r="F60" s="41" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm54Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm54Y#0001</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -4439,7 +4441,7 @@
       </c>
       <c r="F61" s="41" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm55Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm55Y#0001</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -4461,7 +4463,7 @@
       </c>
       <c r="F62" s="41" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm56Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm56Y#0001</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -4483,7 +4485,7 @@
       </c>
       <c r="F63" s="41" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm57Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm57Y#0001</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -4505,7 +4507,7 @@
       </c>
       <c r="F64" s="41" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm58Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm58Y#0001</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -4527,7 +4529,7 @@
       </c>
       <c r="F65" s="41" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm59Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm59Y#0001</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -4549,7 +4551,7 @@
       </c>
       <c r="F66" s="41" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm60Y#0003</v>
+        <v>JpyLiborSwapIsdaFixPm60Y#0001</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/JpyLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/JpyLibor.xlsx
@@ -12,9 +12,6 @@
     <sheet name="LiborSwapIsdaFixAm" sheetId="6" r:id="rId3"/>
     <sheet name="LiborSwapIsdaFixPm" sheetId="7" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$5</definedName>
     <definedName name="FamilyName" localSheetId="1">Libor!$F$3</definedName>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="99">
   <si>
     <t>Trigger</t>
   </si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>LiborYC1Y</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -798,24 +798,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1203,9 +1185,8 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+      <c r="D9" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1314,7 +1295,7 @@
       </c>
       <c r="G5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\JpyLibor.xml</v>
+        <v/>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1812,7 +1793,7 @@
       </c>
       <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\JpyLiborSwapIsdaFixAm.xml</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -3235,7 +3216,7 @@
       </c>
       <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\JpyLiborSwapIsdaFixPm.xml</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/JpyLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/JpyLibor.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="98">
   <si>
     <t>Trigger</t>
   </si>
@@ -328,9 +328,6 @@
   </si>
   <si>
     <t>LiborYC1Y</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1182,9 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>98</v>
+      <c r="D9" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1290,12 +1288,12 @@
         <v>JpyLibor.xml</v>
       </c>
       <c r="F5" s="52" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="49" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" s="49" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1788,12 +1786,12 @@
         <v>JpyLiborSwapIsdaFixAm.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -3211,12 +3209,12 @@
         <v>JpyLiborSwapIsdaFixPm.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/JpyLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/JpyLibor.xlsx
@@ -1104,7 +1104,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1287,13 +1287,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>JpyLibor.xml</v>
       </c>
-      <c r="F5" s="52" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" s="49" t="e">
+      <c r="F5" s="52">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:F23,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>18</v>
+      </c>
+      <c r="G5" s="49" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H5" s="21"/>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="F6" s="54" t="str">
         <f>_xll.qlLibor($E6,Currency,$C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborON#0001</v>
+        <v>JpyLiborON#0002</v>
       </c>
       <c r="G6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F7" s="54" t="str">
         <f>_xll.qlLibor($E7,Currency,$C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborTN#0001</v>
+        <v>JpyLiborTN#0002</v>
       </c>
       <c r="G7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F8" s="54" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSN#0001</v>
+        <v>JpyLiborSN#0002</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F9" s="54" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSW#0001</v>
+        <v>JpyLiborSW#0002</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="F10" s="54" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor2W#0001</v>
+        <v>JpyLibor2W#0002</v>
       </c>
       <c r="G10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F11" s="54" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor3W#0001</v>
+        <v>JpyLibor3W#0002</v>
       </c>
       <c r="G11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="F12" s="54" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor1M#0001</v>
+        <v>JpyLibor1M#0002</v>
       </c>
       <c r="G12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F13" s="54" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor2M#0001</v>
+        <v>JpyLibor2M#0002</v>
       </c>
       <c r="G13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="F14" s="54" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor3M#0001</v>
+        <v>JpyLibor3M#0002</v>
       </c>
       <c r="G14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="F15" s="54" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor4M#0001</v>
+        <v>JpyLibor4M#0002</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="F16" s="54" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor5M#0001</v>
+        <v>JpyLibor5M#0002</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F17" s="54" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor6M#0001</v>
+        <v>JpyLibor6M#0002</v>
       </c>
       <c r="G17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="F18" s="54" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor7M#0001</v>
+        <v>JpyLibor7M#0002</v>
       </c>
       <c r="G18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F19" s="54" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor8M#0001</v>
+        <v>JpyLibor8M#0002</v>
       </c>
       <c r="G19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F20" s="54" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor9M#0001</v>
+        <v>JpyLibor9M#0002</v>
       </c>
       <c r="G20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="F21" s="54" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor10M#0001</v>
+        <v>JpyLibor10M#0002</v>
       </c>
       <c r="G21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="F22" s="54" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor11M#0001</v>
+        <v>JpyLibor11M#0002</v>
       </c>
       <c r="G22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F23" s="54" t="str">
         <f>_xll.qlLibor($E23,Currency,$C23,Currency&amp;$D23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLibor1Y#0001</v>
+        <v>JpyLibor1Y#0002</v>
       </c>
       <c r="G23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -1785,13 +1785,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>JpyLiborSwapIsdaFixAm.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm1Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm1Y#0002</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm2Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm2Y#0002</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm3Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm3Y#0002</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm4Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm4Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm5Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm5Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm6Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm6Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm7Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm7Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm8Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm8Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm9Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm9Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm10Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm10Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm11Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm11Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm12Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm12Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm13Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm13Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm14Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm14Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm15Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm15Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm16Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm16Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm17Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm17Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm18Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm18Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm19Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm19Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm20Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm20Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm21Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm21Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm22Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm22Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm23Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm23Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm24Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm24Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm25Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm25Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm26Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm26Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm27Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm27Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm28Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm28Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm29Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm29Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm30Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm30Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm31Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm31Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm32Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm32Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm33Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm33Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="F40" s="41" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm34Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm34Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="F41" s="41" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm35Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm35Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F42" s="41" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm36Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm36Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="F43" s="41" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm37Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm37Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="F44" s="41" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm38Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm38Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F45" s="41" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm39Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm39Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="F46" s="41" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm40Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm40Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F47" s="41" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm41Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm41Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="F48" s="41" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm42Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm42Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F49" s="41" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm43Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm43Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F50" s="41" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm44Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm44Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="F51" s="41" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm45Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm45Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F52" s="41" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm46Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm46Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="F53" s="41" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm47Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm47Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F54" s="41" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm48Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm48Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F55" s="41" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm49Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm49Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="F56" s="41" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm50Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm50Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="F57" s="41" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm51Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm51Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="F58" s="41" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm52Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm52Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F59" s="41" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm53Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm53Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="F60" s="41" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm54Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm54Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="F61" s="41" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm55Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm55Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="F62" s="41" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm56Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm56Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="F63" s="41" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm57Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm57Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="F64" s="41" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm58Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm58Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F65" s="41" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm59Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm59Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F66" s="41" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixAm60Y#0001</v>
+        <v>JpyLiborSwapIsdaFixAm60Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -3208,13 +3208,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>JpyLiborSwapIsdaFixPm.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm1Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm1Y#0002</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm2Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm2Y#0002</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm3Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm3Y#0002</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm4Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm4Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm5Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm5Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm6Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm6Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm7Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm7Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm8Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm8Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm9Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm9Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm10Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm10Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm11Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm11Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm12Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm12Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm13Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm13Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm14Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm14Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm15Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm15Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm16Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm16Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm17Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm17Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm18Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm18Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm19Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm19Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm20Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm20Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm21Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm21Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm22Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm22Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm23Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm23Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm24Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm24Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm25Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm25Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm26Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm26Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm27Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm27Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm28Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm28Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm29Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm29Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm30Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm30Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm31Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm31Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm32Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm32Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm33Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm33Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="F40" s="41" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm34Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm34Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="F41" s="41" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm35Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm35Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="F42" s="41" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm36Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm36Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="F43" s="41" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm37Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm37Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="F44" s="41" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm38Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm38Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="F45" s="41" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm39Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm39Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="F46" s="41" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm40Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm40Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="F47" s="41" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm41Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm41Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="F48" s="41" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm42Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm42Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="F49" s="41" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm43Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm43Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="F50" s="41" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm44Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm44Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="F51" s="41" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm45Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm45Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="F52" s="41" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm46Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm46Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="F53" s="41" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm47Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm47Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="F54" s="41" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm48Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm48Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="F55" s="41" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm49Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm49Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="F56" s="41" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm50Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm50Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="F57" s="41" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm51Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm51Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="F58" s="41" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm52Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm52Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="F59" s="41" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm53Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm53Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="F60" s="41" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm54Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm54Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="F61" s="41" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm55Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm55Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="F62" s="41" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm56Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm56Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="F63" s="41" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm57Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm57Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="F64" s="41" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm58Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm58Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="F65" s="41" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm59Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm59Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="F66" s="41" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>JpyLiborSwapIsdaFixPm60Y#0001</v>
+        <v>JpyLiborSwapIsdaFixPm60Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
